--- a/contratos/contratos-11-2020.xlsx
+++ b/contratos/contratos-11-2020.xlsx
@@ -943,7 +943,7 @@
     <t>DROGUERIA URUGUAY S.R.L.</t>
   </si>
   <si>
-    <t>MONTICO, RICARDO</t>
+    <t>MONTICO. RICARDO</t>
   </si>
   <si>
     <t>PALMA RODOLFO GABRIEL</t>
@@ -988,7 +988,7 @@
     <t>LESCANO EDUARDO JAVIER</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>SERVICIO MECANICO RICHARD S.R.L.</t>
@@ -1087,10 +1087,10 @@
     <t>PARRAVICINI VIRGINIA VANINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA, BONASEGLA LUCIANA Y BONASEGLA SILVIO.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA. BONASEGLA LUCIANA Y BONASEGLA SILVIO</t>
   </si>
   <si>
     <t>ITTERMANN EDUARDO ELBIO</t>
@@ -1180,7 +1180,7 @@
     <t>COOPERATIVA DE TRABAJO URUGUAY BETEL LTDA.</t>
   </si>
   <si>
-    <t>DENING BLANCO, CRISTIAN DAVID</t>
+    <t>DENING BLANCO. CRISTIAN DAVID</t>
   </si>
   <si>
     <t>GOMEZ CESAR JULIAN</t>
@@ -1423,7 +1423,7 @@
     <t>MAGRI REPUESTOS</t>
   </si>
   <si>
-    <t>PARRAVICINI VIRGINIA VANINA, VIRGINIA VANINA</t>
+    <t>PARRAVICINI VIRGINIA VANINA. VIRGINIA VANINA</t>
   </si>
   <si>
     <t>TRANSAGRO</t>
@@ -1606,700 +1606,700 @@
     <t>105</t>
   </si>
   <si>
-    <t>358.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>119.680,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>24.400,00</t>
-  </si>
-  <si>
-    <t>9.270,00</t>
-  </si>
-  <si>
-    <t>75.766,00</t>
-  </si>
-  <si>
-    <t>1.761,11</t>
-  </si>
-  <si>
-    <t>911.229,00</t>
-  </si>
-  <si>
-    <t>25.365,16</t>
-  </si>
-  <si>
-    <t>23.300,00</t>
-  </si>
-  <si>
-    <t>154.652,00</t>
-  </si>
-  <si>
-    <t>457.550,00</t>
-  </si>
-  <si>
-    <t>241.226,02</t>
-  </si>
-  <si>
-    <t>6.936,00</t>
-  </si>
-  <si>
-    <t>59.892,00</t>
-  </si>
-  <si>
-    <t>192.000,00</t>
-  </si>
-  <si>
-    <t>1.068.430,00</t>
-  </si>
-  <si>
-    <t>7.504,00</t>
-  </si>
-  <si>
-    <t>58.820,20</t>
-  </si>
-  <si>
-    <t>47.500,00</t>
-  </si>
-  <si>
-    <t>3.599,10</t>
-  </si>
-  <si>
-    <t>130.150,00</t>
-  </si>
-  <si>
-    <t>17.460,00</t>
-  </si>
-  <si>
-    <t>177.731,02</t>
-  </si>
-  <si>
-    <t>3.943,30</t>
-  </si>
-  <si>
-    <t>56.565,05</t>
-  </si>
-  <si>
-    <t>99.121,00</t>
-  </si>
-  <si>
-    <t>107.122,00</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>16.980,00</t>
-  </si>
-  <si>
-    <t>2.550,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>15.650,00</t>
-  </si>
-  <si>
-    <t>321,47</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>3.102.562,07</t>
-  </si>
-  <si>
-    <t>316.385,39</t>
-  </si>
-  <si>
-    <t>36.771,15</t>
-  </si>
-  <si>
-    <t>42.711,73</t>
-  </si>
-  <si>
-    <t>1.044.006,96</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>3.920,00</t>
-  </si>
-  <si>
-    <t>50.683,38</t>
-  </si>
-  <si>
-    <t>28.593,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>184.250,66</t>
-  </si>
-  <si>
-    <t>10.060,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
-    <t>15.626,45</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>30.388,01</t>
-  </si>
-  <si>
-    <t>10.867,50</t>
-  </si>
-  <si>
-    <t>55.324,77</t>
-  </si>
-  <si>
-    <t>107.544,80</t>
-  </si>
-  <si>
-    <t>261.441,17</t>
-  </si>
-  <si>
-    <t>3.870,00</t>
-  </si>
-  <si>
-    <t>9.444,57</t>
-  </si>
-  <si>
-    <t>5.099,00</t>
-  </si>
-  <si>
-    <t>595,01</t>
-  </si>
-  <si>
-    <t>2.230,00</t>
-  </si>
-  <si>
-    <t>2.030,00</t>
-  </si>
-  <si>
-    <t>23.271,36</t>
-  </si>
-  <si>
-    <t>2.719,26</t>
-  </si>
-  <si>
-    <t>825.958,00</t>
-  </si>
-  <si>
-    <t>37.800,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>14.860,00</t>
-  </si>
-  <si>
-    <t>31.731,90</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>43.066,00</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>4.326,87</t>
-  </si>
-  <si>
-    <t>8.650,00</t>
-  </si>
-  <si>
-    <t>25.650,00</t>
-  </si>
-  <si>
-    <t>26.740,00</t>
-  </si>
-  <si>
-    <t>400.000,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>22.940,00</t>
-  </si>
-  <si>
-    <t>44.799,93</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>92.248,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>114.942,00</t>
-  </si>
-  <si>
-    <t>93.499,42</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>18.200,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>23.800,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>17.820,00</t>
-  </si>
-  <si>
-    <t>26,00</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>8.520,00</t>
-  </si>
-  <si>
-    <t>9,17</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>6,26</t>
-  </si>
-  <si>
-    <t>27.794,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>7.700,00</t>
-  </si>
-  <si>
-    <t>43.260,00</t>
-  </si>
-  <si>
-    <t>12.650,00</t>
-  </si>
-  <si>
-    <t>11.640,00</t>
-  </si>
-  <si>
-    <t>33.600,00</t>
-  </si>
-  <si>
-    <t>27.700,00</t>
-  </si>
-  <si>
-    <t>100,24</t>
-  </si>
-  <si>
-    <t>6.873,09</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>3.576,00</t>
-  </si>
-  <si>
-    <t>160.320,00</t>
-  </si>
-  <si>
-    <t>41.840,32</t>
-  </si>
-  <si>
-    <t>7.540,00</t>
-  </si>
-  <si>
-    <t>23.430,00</t>
-  </si>
-  <si>
-    <t>233,18</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>8.040,00</t>
-  </si>
-  <si>
-    <t>92.786,45</t>
-  </si>
-  <si>
-    <t>973,00</t>
-  </si>
-  <si>
-    <t>12.875,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>3.760,00</t>
-  </si>
-  <si>
-    <t>2.775,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>193.500,00</t>
-  </si>
-  <si>
-    <t>5.773,54</t>
-  </si>
-  <si>
-    <t>14.050,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>108,40</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>13.920,00</t>
-  </si>
-  <si>
-    <t>17.940,00</t>
-  </si>
-  <si>
-    <t>2.390,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>10.316,40</t>
-  </si>
-  <si>
-    <t>55.986,96</t>
-  </si>
-  <si>
-    <t>32.080,00</t>
-  </si>
-  <si>
-    <t>205,60</t>
-  </si>
-  <si>
-    <t>4.731,90</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>20.903,99</t>
-  </si>
-  <si>
-    <t>1.512,97</t>
-  </si>
-  <si>
-    <t>76.849,00</t>
-  </si>
-  <si>
-    <t>12.185,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>20.870,00</t>
-  </si>
-  <si>
-    <t>27.149,85</t>
-  </si>
-  <si>
-    <t>56.000,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>63.000,00</t>
-  </si>
-  <si>
-    <t>1.946,56</t>
-  </si>
-  <si>
-    <t>21.090,00</t>
-  </si>
-  <si>
-    <t>238.890,00</t>
-  </si>
-  <si>
-    <t>15.674,00</t>
-  </si>
-  <si>
-    <t>9.495,21</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>32.410,98</t>
-  </si>
-  <si>
-    <t>184.020,00</t>
-  </si>
-  <si>
-    <t>61.460,00</t>
-  </si>
-  <si>
-    <t>16.600,00</t>
-  </si>
-  <si>
-    <t>67.500,00</t>
-  </si>
-  <si>
-    <t>11.980,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>131.640,00</t>
-  </si>
-  <si>
-    <t>6.150,00</t>
-  </si>
-  <si>
-    <t>2.980,00</t>
-  </si>
-  <si>
-    <t>2.025,96</t>
-  </si>
-  <si>
-    <t>55.450,00</t>
-  </si>
-  <si>
-    <t>2.090,90</t>
-  </si>
-  <si>
-    <t>8.820,00</t>
-  </si>
-  <si>
-    <t>9.098,88</t>
-  </si>
-  <si>
-    <t>169.700,00</t>
-  </si>
-  <si>
-    <t>119.959,86</t>
-  </si>
-  <si>
-    <t>69.000,00</t>
-  </si>
-  <si>
-    <t>7.411,25</t>
-  </si>
-  <si>
-    <t>41.600,00</t>
-  </si>
-  <si>
-    <t>1.487.123,94</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>165.000,00</t>
-  </si>
-  <si>
-    <t>11.229.727,40</t>
-  </si>
-  <si>
-    <t>290.200,00</t>
-  </si>
-  <si>
-    <t>13.035,00</t>
-  </si>
-  <si>
-    <t>362.520,00</t>
-  </si>
-  <si>
-    <t>4.180,00</t>
-  </si>
-  <si>
-    <t>17.514,00</t>
-  </si>
-  <si>
-    <t>8.890.539,61</t>
-  </si>
-  <si>
-    <t>476.440,00</t>
-  </si>
-  <si>
-    <t>415.990,00</t>
-  </si>
-  <si>
-    <t>358.280,00</t>
-  </si>
-  <si>
-    <t>346.000,00</t>
-  </si>
-  <si>
-    <t>337.000,00</t>
-  </si>
-  <si>
-    <t>643.000,00</t>
-  </si>
-  <si>
-    <t>883.140,00</t>
-  </si>
-  <si>
-    <t>1.122.000,00</t>
-  </si>
-  <si>
-    <t>385.800,00</t>
-  </si>
-  <si>
-    <t>674.000,00</t>
-  </si>
-  <si>
-    <t>703.860,00</t>
-  </si>
-  <si>
-    <t>665.680,00</t>
-  </si>
-  <si>
-    <t>992.680,00</t>
-  </si>
-  <si>
-    <t>995.390,00</t>
-  </si>
-  <si>
-    <t>376.523,00</t>
-  </si>
-  <si>
-    <t>1.185.800,00</t>
-  </si>
-  <si>
-    <t>65.810,00</t>
-  </si>
-  <si>
-    <t>427.086,84</t>
-  </si>
-  <si>
-    <t>43.525,74</t>
-  </si>
-  <si>
-    <t>4.612.990,04</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>1.587.000,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>9.250,00</t>
-  </si>
-  <si>
-    <t>2.530,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>2.204,22</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>25.750,00</t>
-  </si>
-  <si>
-    <t>23.740,20</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>3.440,00</t>
+    <t>358500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>119680.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>24400.00</t>
+  </si>
+  <si>
+    <t>9270.00</t>
+  </si>
+  <si>
+    <t>75766.00</t>
+  </si>
+  <si>
+    <t>1761.11</t>
+  </si>
+  <si>
+    <t>911229.00</t>
+  </si>
+  <si>
+    <t>25365.16</t>
+  </si>
+  <si>
+    <t>23300.00</t>
+  </si>
+  <si>
+    <t>154652.00</t>
+  </si>
+  <si>
+    <t>457550.00</t>
+  </si>
+  <si>
+    <t>241226.02</t>
+  </si>
+  <si>
+    <t>6936.00</t>
+  </si>
+  <si>
+    <t>59892.00</t>
+  </si>
+  <si>
+    <t>192000.00</t>
+  </si>
+  <si>
+    <t>1068430.00</t>
+  </si>
+  <si>
+    <t>7504.00</t>
+  </si>
+  <si>
+    <t>58820.20</t>
+  </si>
+  <si>
+    <t>47500.00</t>
+  </si>
+  <si>
+    <t>3599.10</t>
+  </si>
+  <si>
+    <t>130150.00</t>
+  </si>
+  <si>
+    <t>17460.00</t>
+  </si>
+  <si>
+    <t>177731.02</t>
+  </si>
+  <si>
+    <t>3943.30</t>
+  </si>
+  <si>
+    <t>56565.05</t>
+  </si>
+  <si>
+    <t>99121.00</t>
+  </si>
+  <si>
+    <t>107122.00</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>16980.00</t>
+  </si>
+  <si>
+    <t>2550.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>15650.00</t>
+  </si>
+  <si>
+    <t>321.47</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>3102562.07</t>
+  </si>
+  <si>
+    <t>316385.39</t>
+  </si>
+  <si>
+    <t>36771.15</t>
+  </si>
+  <si>
+    <t>42711.73</t>
+  </si>
+  <si>
+    <t>1044006.96</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>3920.00</t>
+  </si>
+  <si>
+    <t>50683.38</t>
+  </si>
+  <si>
+    <t>28593.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>184250.66</t>
+  </si>
+  <si>
+    <t>10060.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>2040.00</t>
+  </si>
+  <si>
+    <t>15626.45</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>30388.01</t>
+  </si>
+  <si>
+    <t>10867.50</t>
+  </si>
+  <si>
+    <t>55324.77</t>
+  </si>
+  <si>
+    <t>107544.80</t>
+  </si>
+  <si>
+    <t>261441.17</t>
+  </si>
+  <si>
+    <t>3870.00</t>
+  </si>
+  <si>
+    <t>9444.57</t>
+  </si>
+  <si>
+    <t>5099.00</t>
+  </si>
+  <si>
+    <t>595.01</t>
+  </si>
+  <si>
+    <t>2230.00</t>
+  </si>
+  <si>
+    <t>2030.00</t>
+  </si>
+  <si>
+    <t>23271.36</t>
+  </si>
+  <si>
+    <t>2719.26</t>
+  </si>
+  <si>
+    <t>825958.00</t>
+  </si>
+  <si>
+    <t>37800.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>14860.00</t>
+  </si>
+  <si>
+    <t>31731.90</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>43066.00</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>4326.87</t>
+  </si>
+  <si>
+    <t>8650.00</t>
+  </si>
+  <si>
+    <t>25650.00</t>
+  </si>
+  <si>
+    <t>26740.00</t>
+  </si>
+  <si>
+    <t>400000.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>22940.00</t>
+  </si>
+  <si>
+    <t>44799.93</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>92248.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>114942.00</t>
+  </si>
+  <si>
+    <t>93499.42</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>18200.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>23800.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>17820.00</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>8520.00</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>6.26</t>
+  </si>
+  <si>
+    <t>27794.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>43260.00</t>
+  </si>
+  <si>
+    <t>12650.00</t>
+  </si>
+  <si>
+    <t>11640.00</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>27700.00</t>
+  </si>
+  <si>
+    <t>100.24</t>
+  </si>
+  <si>
+    <t>6873.09</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>3576.00</t>
+  </si>
+  <si>
+    <t>160320.00</t>
+  </si>
+  <si>
+    <t>41840.32</t>
+  </si>
+  <si>
+    <t>7540.00</t>
+  </si>
+  <si>
+    <t>23430.00</t>
+  </si>
+  <si>
+    <t>233.18</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>8040.00</t>
+  </si>
+  <si>
+    <t>92786.45</t>
+  </si>
+  <si>
+    <t>973.00</t>
+  </si>
+  <si>
+    <t>12875.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>3760.00</t>
+  </si>
+  <si>
+    <t>2775.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>193500.00</t>
+  </si>
+  <si>
+    <t>5773.54</t>
+  </si>
+  <si>
+    <t>14050.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>108.40</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>13920.00</t>
+  </si>
+  <si>
+    <t>17940.00</t>
+  </si>
+  <si>
+    <t>2390.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>10316.40</t>
+  </si>
+  <si>
+    <t>55986.96</t>
+  </si>
+  <si>
+    <t>32080.00</t>
+  </si>
+  <si>
+    <t>205.60</t>
+  </si>
+  <si>
+    <t>4731.90</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>20903.99</t>
+  </si>
+  <si>
+    <t>1512.97</t>
+  </si>
+  <si>
+    <t>76849.00</t>
+  </si>
+  <si>
+    <t>12185.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>20870.00</t>
+  </si>
+  <si>
+    <t>27149.85</t>
+  </si>
+  <si>
+    <t>56000.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>63000.00</t>
+  </si>
+  <si>
+    <t>1946.56</t>
+  </si>
+  <si>
+    <t>21090.00</t>
+  </si>
+  <si>
+    <t>238890.00</t>
+  </si>
+  <si>
+    <t>15674.00</t>
+  </si>
+  <si>
+    <t>9495.21</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>32410.98</t>
+  </si>
+  <si>
+    <t>184020.00</t>
+  </si>
+  <si>
+    <t>61460.00</t>
+  </si>
+  <si>
+    <t>16600.00</t>
+  </si>
+  <si>
+    <t>67500.00</t>
+  </si>
+  <si>
+    <t>11980.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>131640.00</t>
+  </si>
+  <si>
+    <t>6150.00</t>
+  </si>
+  <si>
+    <t>2980.00</t>
+  </si>
+  <si>
+    <t>2025.96</t>
+  </si>
+  <si>
+    <t>55450.00</t>
+  </si>
+  <si>
+    <t>2090.90</t>
+  </si>
+  <si>
+    <t>8820.00</t>
+  </si>
+  <si>
+    <t>9098.88</t>
+  </si>
+  <si>
+    <t>169700.00</t>
+  </si>
+  <si>
+    <t>119959.86</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>7411.25</t>
+  </si>
+  <si>
+    <t>41600.00</t>
+  </si>
+  <si>
+    <t>1487123.94</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>165000.00</t>
+  </si>
+  <si>
+    <t>11229727.40</t>
+  </si>
+  <si>
+    <t>290200.00</t>
+  </si>
+  <si>
+    <t>13035.00</t>
+  </si>
+  <si>
+    <t>362520.00</t>
+  </si>
+  <si>
+    <t>4180.00</t>
+  </si>
+  <si>
+    <t>17514.00</t>
+  </si>
+  <si>
+    <t>8890539.61</t>
+  </si>
+  <si>
+    <t>476440.00</t>
+  </si>
+  <si>
+    <t>415990.00</t>
+  </si>
+  <si>
+    <t>358280.00</t>
+  </si>
+  <si>
+    <t>346000.00</t>
+  </si>
+  <si>
+    <t>337000.00</t>
+  </si>
+  <si>
+    <t>643000.00</t>
+  </si>
+  <si>
+    <t>883140.00</t>
+  </si>
+  <si>
+    <t>1122000.00</t>
+  </si>
+  <si>
+    <t>385800.00</t>
+  </si>
+  <si>
+    <t>674000.00</t>
+  </si>
+  <si>
+    <t>703860.00</t>
+  </si>
+  <si>
+    <t>665680.00</t>
+  </si>
+  <si>
+    <t>992680.00</t>
+  </si>
+  <si>
+    <t>995390.00</t>
+  </si>
+  <si>
+    <t>376523.00</t>
+  </si>
+  <si>
+    <t>1185800.00</t>
+  </si>
+  <si>
+    <t>65810.00</t>
+  </si>
+  <si>
+    <t>427086.84</t>
+  </si>
+  <si>
+    <t>43525.74</t>
+  </si>
+  <si>
+    <t>4612990.04</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>1587000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>9250.00</t>
+  </si>
+  <si>
+    <t>2530.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>2204.22</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>25750.00</t>
+  </si>
+  <si>
+    <t>23740.20</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>3440.00</t>
   </si>
 </sst>
 </file>
